--- a/ArchivosParaPruebas/importacionRolAlumno.xlsx
+++ b/ArchivosParaPruebas/importacionRolAlumno.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\DayClass\ArchivosParaPruebas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{FB3AE08B-AB88-456F-8B96-0131710B85B3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5E61A348-D518-4E00-A1F8-9974DC57291A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{C0062F32-29E6-4F2D-B223-DB59479D56CE}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="34">
   <si>
     <t>DNI</t>
   </si>
@@ -82,33 +82,6 @@
   </si>
   <si>
     <t>Petra</t>
-  </si>
-  <si>
-    <t>PR90005</t>
-  </si>
-  <si>
-    <t>Barlow</t>
-  </si>
-  <si>
-    <t>Nash</t>
-  </si>
-  <si>
-    <t>PR90006</t>
-  </si>
-  <si>
-    <t>Barnes</t>
-  </si>
-  <si>
-    <t>Daria</t>
-  </si>
-  <si>
-    <t>PR90007</t>
-  </si>
-  <si>
-    <t>Barry</t>
-  </si>
-  <si>
-    <t>Vance</t>
   </si>
   <si>
     <t>PR90008</t>
@@ -521,10 +494,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FF07A377-E429-4D33-8C10-6293602BD846}">
-  <dimension ref="A1:D14"/>
+  <dimension ref="A1:D11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:D14"/>
+      <selection activeCell="A7" sqref="A7:XFD9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -615,7 +588,7 @@
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
-        <v>20684890</v>
+        <v>20609060</v>
       </c>
       <c r="B7" s="1" t="s">
         <v>19</v>
@@ -629,7 +602,7 @@
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
-        <v>14467596</v>
+        <v>19617326</v>
       </c>
       <c r="B8" s="1" t="s">
         <v>22</v>
@@ -643,7 +616,7 @@
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
-        <v>11537358</v>
+        <v>12618030</v>
       </c>
       <c r="B9" s="1" t="s">
         <v>25</v>
@@ -657,7 +630,7 @@
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
-        <v>20609060</v>
+        <v>24157590</v>
       </c>
       <c r="B10" s="1" t="s">
         <v>28</v>
@@ -671,7 +644,7 @@
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
-        <v>19617326</v>
+        <v>15151583</v>
       </c>
       <c r="B11" s="1" t="s">
         <v>31</v>
@@ -681,48 +654,6 @@
       </c>
       <c r="D11" s="1" t="s">
         <v>33</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A12" s="1">
-        <v>12618030</v>
-      </c>
-      <c r="B12" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="C12" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="D12" s="1" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A13" s="1">
-        <v>24157590</v>
-      </c>
-      <c r="B13" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="C13" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="D13" s="1" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A14" s="1">
-        <v>15151583</v>
-      </c>
-      <c r="B14" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="C14" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="D14" s="1" t="s">
-        <v>42</v>
       </c>
     </row>
   </sheetData>
